--- a/قاعات روض الفرج.xlsx
+++ b/قاعات روض الفرج.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="23">
   <si>
     <t>اليوم الاول</t>
   </si>
@@ -52,6 +52,9 @@
     <t>A1</t>
   </si>
   <si>
+    <t>رابعه حاسبات</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
@@ -80,18 +83,6 @@
   </si>
   <si>
     <t>اعدادي هندسه</t>
-  </si>
-  <si>
-    <t>رابعه حاسبات</t>
-  </si>
-  <si>
-    <t>تانيه اتصالات</t>
-  </si>
-  <si>
-    <t>تالته حاسبات</t>
-  </si>
-  <si>
-    <t>اولي اتصالات</t>
   </si>
 </sst>
 </file>
@@ -557,36 +548,36 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>616</v>
+      </c>
+      <c r="D4" s="3">
+        <v>665</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3">
-        <v>616</v>
-      </c>
-      <c r="G4" s="3">
-        <v>665</v>
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3">
-        <v>441</v>
-      </c>
-      <c r="J4" s="3">
-        <v>520</v>
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -607,18 +598,18 @@
         <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="3">
-        <v>521</v>
-      </c>
-      <c r="J5" s="3">
-        <v>555</v>
+        <v>8</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -650,7 +641,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -682,7 +673,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -703,18 +694,18 @@
         <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="3">
-        <v>556</v>
-      </c>
-      <c r="J8" s="3">
-        <v>595</v>
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
@@ -735,18 +726,18 @@
         <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="3">
-        <v>596</v>
-      </c>
-      <c r="J9" s="3">
-        <v>615</v>
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -778,7 +769,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
@@ -810,7 +801,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
@@ -842,10 +833,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -863,13 +854,13 @@
         <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="3">
-        <v>321</v>
-      </c>
-      <c r="J13" s="3">
-        <v>440</v>
+        <v>8</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/قاعات روض الفرج.xlsx
+++ b/قاعات روض الفرج.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="50">
   <si>
     <t>اليوم الاول</t>
   </si>
@@ -37,7 +37,7 @@
     <t>الي</t>
   </si>
   <si>
-    <t>A0</t>
+    <t>A1</t>
   </si>
   <si>
     <t>فارغه</t>
@@ -49,40 +49,121 @@
     <t>---</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>رابعه حاسبات</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>B0</t>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A231</t>
+  </si>
+  <si>
+    <t>A232</t>
+  </si>
+  <si>
+    <t>ثالثه عمارة</t>
+  </si>
+  <si>
+    <t>A233</t>
+  </si>
+  <si>
+    <t>A234</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>المسرح 1</t>
+  </si>
+  <si>
+    <t>ثالثه مدنى عام</t>
+  </si>
+  <si>
+    <t>المسرح2</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
+    <t>رابعه عمارة</t>
+  </si>
+  <si>
     <t>B2</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>C0</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>اعدادي هندسه</t>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>ثانيه مدنى</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>صالة A</t>
+  </si>
+  <si>
+    <t>اولى مدنى</t>
+  </si>
+  <si>
+    <t>صالة B</t>
+  </si>
+  <si>
+    <t>صالة C</t>
+  </si>
+  <si>
+    <t>صالة D</t>
+  </si>
+  <si>
+    <t>ثانيه مساحه</t>
+  </si>
+  <si>
+    <t>صالة E</t>
+  </si>
+  <si>
+    <t>صالة F</t>
+  </si>
+  <si>
+    <t>مدرج عمارة</t>
+  </si>
+  <si>
+    <t>رابعه مساحه</t>
+  </si>
+  <si>
+    <t>رابعه مدنى انشاءات</t>
+  </si>
+  <si>
+    <t>ثالثة مدنى انشاءات</t>
+  </si>
+  <si>
+    <t>رابعه مدنى عام</t>
+  </si>
+  <si>
+    <t>اولى مساحه</t>
+  </si>
+  <si>
+    <t>ثالثه مساحه</t>
+  </si>
+  <si>
+    <t>اولى عمارة</t>
+  </si>
+  <si>
+    <t>ثانيه عمارة</t>
   </si>
 </sst>
 </file>
@@ -450,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -548,13 +629,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3">
-        <v>616</v>
-      </c>
-      <c r="D4" s="3">
-        <v>665</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -577,7 +658,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -609,16 +690,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
+      <c r="C6" s="3">
+        <v>320001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>320036</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
@@ -644,13 +725,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="3">
+        <v>320037</v>
+      </c>
+      <c r="D7" s="3">
+        <v>320056</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -676,13 +757,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>320057</v>
+      </c>
+      <c r="D8" s="3">
+        <v>320080</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -708,13 +789,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="3">
+        <v>320081</v>
+      </c>
+      <c r="D9" s="3">
+        <v>320121</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -740,22 +821,22 @@
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="3">
+        <v>33001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>33036</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="F10" s="3">
+        <v>410001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>410036</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>8</v>
@@ -769,25 +850,25 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
+      <c r="C11" s="3">
+        <v>33037</v>
+      </c>
+      <c r="D11" s="3">
+        <v>33068</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="F11" s="3">
+        <v>410037</v>
+      </c>
+      <c r="G11" s="3">
+        <v>410071</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>8</v>
@@ -801,16 +882,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>42040</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -833,16 +914,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>42041</v>
       </c>
       <c r="D13" s="3">
-        <v>320</v>
+        <v>42068</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
@@ -860,6 +941,486 @@
         <v>9</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3">
+        <v>42069</v>
+      </c>
+      <c r="D14" s="3">
+        <v>42096</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42097</v>
+      </c>
+      <c r="D15" s="3">
+        <v>42134</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3">
+        <v>23001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>23028</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3">
+        <v>23029</v>
+      </c>
+      <c r="D17" s="3">
+        <v>23056</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="3">
+        <v>431001</v>
+      </c>
+      <c r="G17" s="3">
+        <v>431028</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3">
+        <v>23057</v>
+      </c>
+      <c r="D18" s="3">
+        <v>23096</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="3">
+        <v>431029</v>
+      </c>
+      <c r="G18" s="3">
+        <v>431068</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3">
+        <v>23097</v>
+      </c>
+      <c r="D19" s="3">
+        <v>23144</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="3">
+        <v>431069</v>
+      </c>
+      <c r="G19" s="3">
+        <v>431111</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="3">
+        <v>310001</v>
+      </c>
+      <c r="J19" s="3">
+        <v>310048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3">
+        <v>23145</v>
+      </c>
+      <c r="D20" s="3">
+        <v>23188</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="3">
+        <v>331001</v>
+      </c>
+      <c r="G20" s="3">
+        <v>331048</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="3">
+        <v>310049</v>
+      </c>
+      <c r="J20" s="3">
+        <v>310090</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="3">
+        <v>331049</v>
+      </c>
+      <c r="G21" s="3">
+        <v>331082</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3">
+        <v>13001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>13055</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="3">
+        <v>432001</v>
+      </c>
+      <c r="G22" s="3">
+        <v>432055</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="3">
+        <v>120001</v>
+      </c>
+      <c r="J22" s="3">
+        <v>120055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3">
+        <v>13056</v>
+      </c>
+      <c r="D23" s="3">
+        <v>13120</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="3">
+        <v>432056</v>
+      </c>
+      <c r="G23" s="3">
+        <v>432098</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="3">
+        <v>120056</v>
+      </c>
+      <c r="J23" s="3">
+        <v>120100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3">
+        <v>13121</v>
+      </c>
+      <c r="D24" s="3">
+        <v>13157</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="3">
+        <v>110001</v>
+      </c>
+      <c r="G24" s="3">
+        <v>110050</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="3">
+        <v>220001</v>
+      </c>
+      <c r="J24" s="3">
+        <v>220050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="3">
+        <v>210001</v>
+      </c>
+      <c r="D25" s="3">
+        <v>210054</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="3">
+        <v>110051</v>
+      </c>
+      <c r="G25" s="3">
+        <v>110099</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="3">
+        <v>220051</v>
+      </c>
+      <c r="J25" s="3">
+        <v>220100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/قاعات روض الفرج.xlsx
+++ b/قاعات روض الفرج.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="46">
   <si>
     <t>اليوم الاول</t>
   </si>
@@ -52,19 +52,7 @@
     <t>A23</t>
   </si>
   <si>
-    <t>A231</t>
-  </si>
-  <si>
-    <t>A232</t>
-  </si>
-  <si>
     <t>ثالثه عمارة</t>
-  </si>
-  <si>
-    <t>A233</t>
-  </si>
-  <si>
-    <t>A234</t>
   </si>
   <si>
     <t>A4</t>
@@ -658,7 +646,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -690,10 +678,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
         <v>320001</v>
@@ -722,10 +710,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
         <v>320037</v>
@@ -754,10 +742,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>320057</v>
@@ -786,10 +774,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>320081</v>
@@ -818,10 +806,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>33001</v>
@@ -830,7 +818,7 @@
         <v>33036</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3">
         <v>410001</v>
@@ -850,10 +838,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
         <v>33037</v>
@@ -862,7 +850,7 @@
         <v>33068</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3">
         <v>410037</v>
@@ -882,10 +870,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3">
         <v>42001</v>
@@ -914,10 +902,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3">
         <v>42041</v>
@@ -946,10 +934,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3">
         <v>42069</v>
@@ -978,10 +966,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3">
         <v>42097</v>
@@ -1010,10 +998,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3">
         <v>23001</v>
@@ -1042,10 +1030,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3">
         <v>23029</v>
@@ -1054,7 +1042,7 @@
         <v>23056</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F17" s="3">
         <v>431001</v>
@@ -1074,10 +1062,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3">
         <v>23057</v>
@@ -1086,7 +1074,7 @@
         <v>23096</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F18" s="3">
         <v>431029</v>
@@ -1106,10 +1094,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3">
         <v>23097</v>
@@ -1118,7 +1106,7 @@
         <v>23144</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F19" s="3">
         <v>431069</v>
@@ -1127,7 +1115,7 @@
         <v>431111</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I19" s="3">
         <v>310001</v>
@@ -1138,10 +1126,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3">
         <v>23145</v>
@@ -1150,7 +1138,7 @@
         <v>23188</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F20" s="3">
         <v>331001</v>
@@ -1159,7 +1147,7 @@
         <v>331048</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I20" s="3">
         <v>310049</v>
@@ -1170,7 +1158,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>8</v>
@@ -1182,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F21" s="3">
         <v>331049</v>
@@ -1202,10 +1190,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C22" s="3">
         <v>13001</v>
@@ -1214,7 +1202,7 @@
         <v>13055</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F22" s="3">
         <v>432001</v>
@@ -1223,7 +1211,7 @@
         <v>432055</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I22" s="3">
         <v>120001</v>
@@ -1234,10 +1222,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3">
         <v>13056</v>
@@ -1246,7 +1234,7 @@
         <v>13120</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F23" s="3">
         <v>432056</v>
@@ -1255,7 +1243,7 @@
         <v>432098</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I23" s="3">
         <v>120056</v>
@@ -1266,10 +1254,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3">
         <v>13121</v>
@@ -1278,7 +1266,7 @@
         <v>13157</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F24" s="3">
         <v>110001</v>
@@ -1287,7 +1275,7 @@
         <v>110050</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I24" s="3">
         <v>220001</v>
@@ -1298,10 +1286,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3">
         <v>210001</v>
@@ -1310,7 +1298,7 @@
         <v>210054</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F25" s="3">
         <v>110051</v>
@@ -1319,7 +1307,7 @@
         <v>110099</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I25" s="3">
         <v>220051</v>
@@ -1330,7 +1318,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>8</v>
@@ -1362,7 +1350,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>8</v>
@@ -1394,7 +1382,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
